--- a/2274801040879_DinhDieuHuong8/Data/ds_sanpham.xlsx
+++ b/2274801040879_DinhDieuHuong8/Data/ds_sanpham.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASP.NET\2274801040879_DinhDieuHuong8\2274801040879_DinhDieuHuong8\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASP.NET\2274801040879_DinhDieuHuong8vv\2274801040879_DinhDieuHuong8\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5063AD1D-4758-4270-9519-F79A157CB398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4B51EF-AC35-4866-B354-0A9923A6CBFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="696" windowWidth="9600" windowHeight="6000" xr2:uid="{0610D311-06DD-41C6-A4F1-1B3940D559D0}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="9600" windowHeight="6000" xr2:uid="{0610D311-06DD-41C6-A4F1-1B3940D559D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>masp</t>
+  </si>
   <si>
     <t>tensp</t>
   </si>
@@ -42,38 +48,57 @@
     <t>soluong</t>
   </si>
   <si>
-    <t>masp</t>
+    <t>daban</t>
   </si>
   <si>
     <t>BD1</t>
   </si>
   <si>
+    <t>Goi co ban</t>
+  </si>
+  <si>
+    <t>42 000000</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
     <t>BD2</t>
   </si>
   <si>
-    <t>BD3</t>
-  </si>
-  <si>
-    <t>Goi co ban</t>
-  </si>
-  <si>
     <t>Goi cao cap</t>
   </si>
   <si>
-    <t>Goi su dung UHF</t>
-  </si>
-  <si>
-    <t>42 000000</t>
-  </si>
-  <si>
-    <t>stt</t>
+    <t>49000000</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>bd3</t>
+  </si>
+  <si>
+    <t>goi vipp</t>
+  </si>
+  <si>
+    <t>55000000</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38352589-E012-4E67-942A-CC1AA3D902FF}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,75 +454,88 @@
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>49000000</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>55000000</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>